--- a/results/mp/logistic/corona/confidence/42/stop-words-desired-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/stop-words-desired-0.2/avg_0.004_scores.xlsx
@@ -40,27 +40,27 @@
     <t>name</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
@@ -70,48 +70,48 @@
     <t>love</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
-    <t>great</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>relief</t>
   </si>
   <si>
@@ -124,37 +124,37 @@
     <t>better</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>gt</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>well</t>
+    <t>share</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>safety</t>
   </si>
   <si>
     <t>care</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>protect</t>
   </si>
   <si>
     <t>increase</t>
@@ -584,13 +584,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8421052631578947</v>
+        <v>0.8356164383561644</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>244</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>244</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -602,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>17</v>
@@ -634,13 +634,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8321917808219178</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C4">
-        <v>243</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>243</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -652,19 +652,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K4">
-        <v>0.9583333333333334</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -684,13 +684,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7777777777777778</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -708,13 +708,13 @@
         <v>19</v>
       </c>
       <c r="K5">
-        <v>0.9491525423728814</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -734,13 +734,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7647058823529411</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C6">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -752,19 +752,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K6">
-        <v>0.9302325581395349</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L6">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="M6">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -784,13 +784,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7297297297297297</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -802,19 +802,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K7">
-        <v>0.9190600522193212</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L7">
-        <v>352</v>
+        <v>33</v>
       </c>
       <c r="M7">
-        <v>352</v>
+        <v>33</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>31</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -834,13 +834,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5714285714285714</v>
+        <v>0.5135658914728682</v>
       </c>
       <c r="C8">
-        <v>108</v>
+        <v>265</v>
       </c>
       <c r="D8">
-        <v>108</v>
+        <v>265</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -852,19 +852,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>81</v>
+        <v>251</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K8">
-        <v>0.9166666666666666</v>
+        <v>0.9164490861618799</v>
       </c>
       <c r="L8">
-        <v>33</v>
+        <v>351</v>
       </c>
       <c r="M8">
-        <v>33</v>
+        <v>351</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -884,13 +884,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4496124031007752</v>
+        <v>0.4745762711864407</v>
       </c>
       <c r="C9">
-        <v>232</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>232</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>284</v>
+        <v>31</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K9">
-        <v>0.9014084507042254</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="L9">
-        <v>128</v>
+        <v>39</v>
       </c>
       <c r="M9">
-        <v>128</v>
+        <v>39</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -934,13 +934,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1946308724832215</v>
+        <v>0.2751677852348993</v>
       </c>
       <c r="C10">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D10">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K10">
-        <v>0.8928571428571429</v>
+        <v>0.8984375</v>
       </c>
       <c r="L10">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="M10">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -976,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -984,13 +984,13 @@
         <v>25</v>
       </c>
       <c r="K11">
-        <v>0.8867924528301887</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L11">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M11">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1010,13 +1010,13 @@
         <v>26</v>
       </c>
       <c r="K12">
-        <v>0.8828125</v>
+        <v>0.88125</v>
       </c>
       <c r="L12">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="M12">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1036,13 +1036,13 @@
         <v>27</v>
       </c>
       <c r="K13">
-        <v>0.8787878787878788</v>
+        <v>0.8802816901408451</v>
       </c>
       <c r="L13">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="M13">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1062,13 +1062,13 @@
         <v>28</v>
       </c>
       <c r="K14">
-        <v>0.875</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L14">
-        <v>140</v>
+        <v>41</v>
       </c>
       <c r="M14">
-        <v>140</v>
+        <v>41</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1088,13 +1088,13 @@
         <v>29</v>
       </c>
       <c r="K15">
-        <v>0.8723404255319149</v>
+        <v>0.8658536585365854</v>
       </c>
       <c r="L15">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="M15">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1140,13 +1140,13 @@
         <v>31</v>
       </c>
       <c r="K17">
-        <v>0.8536585365853658</v>
+        <v>0.8584905660377359</v>
       </c>
       <c r="L17">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="M17">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1218,13 +1218,13 @@
         <v>34</v>
       </c>
       <c r="K20">
-        <v>0.7916666666666666</v>
+        <v>0.8125</v>
       </c>
       <c r="L20">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M20">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1236,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1244,13 +1244,13 @@
         <v>35</v>
       </c>
       <c r="K21">
-        <v>0.7777777777777778</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="L21">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M21">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1270,13 +1270,13 @@
         <v>36</v>
       </c>
       <c r="K22">
-        <v>0.75</v>
+        <v>0.7529411764705882</v>
       </c>
       <c r="L22">
-        <v>30</v>
+        <v>256</v>
       </c>
       <c r="M22">
-        <v>30</v>
+        <v>256</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1322,13 +1322,13 @@
         <v>38</v>
       </c>
       <c r="K24">
-        <v>0.7323529411764705</v>
+        <v>0.7220338983050848</v>
       </c>
       <c r="L24">
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="M24">
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1340,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1348,13 +1348,13 @@
         <v>39</v>
       </c>
       <c r="K25">
-        <v>0.7016949152542373</v>
+        <v>0.7127659574468085</v>
       </c>
       <c r="L25">
-        <v>207</v>
+        <v>67</v>
       </c>
       <c r="M25">
-        <v>207</v>
+        <v>67</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>88</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1374,13 +1374,13 @@
         <v>40</v>
       </c>
       <c r="K26">
-        <v>0.698744769874477</v>
+        <v>0.7</v>
       </c>
       <c r="L26">
-        <v>167</v>
+        <v>28</v>
       </c>
       <c r="M26">
-        <v>167</v>
+        <v>28</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1400,13 +1400,13 @@
         <v>41</v>
       </c>
       <c r="K27">
-        <v>0.676923076923077</v>
+        <v>0.694560669456067</v>
       </c>
       <c r="L27">
-        <v>44</v>
+        <v>166</v>
       </c>
       <c r="M27">
-        <v>44</v>
+        <v>166</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>21</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1426,13 +1426,13 @@
         <v>42</v>
       </c>
       <c r="K28">
-        <v>0.6702127659574468</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="L28">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="M28">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1452,13 +1452,13 @@
         <v>43</v>
       </c>
       <c r="K29">
-        <v>0.6404494382022472</v>
+        <v>0.6</v>
       </c>
       <c r="L29">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="M29">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1478,7 +1478,7 @@
         <v>44</v>
       </c>
       <c r="K30">
-        <v>0.6142857142857143</v>
+        <v>0.589041095890411</v>
       </c>
       <c r="L30">
         <v>43</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1504,13 +1504,13 @@
         <v>45</v>
       </c>
       <c r="K31">
-        <v>0.5098039215686274</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="L31">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M31">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1530,13 +1530,13 @@
         <v>46</v>
       </c>
       <c r="K32">
-        <v>0.4657534246575342</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="L32">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="M32">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1556,13 +1556,13 @@
         <v>47</v>
       </c>
       <c r="K33">
-        <v>0.358974358974359</v>
+        <v>0.5256410256410257</v>
       </c>
       <c r="L33">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="M33">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1574,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
